--- a/results/gru/dilemma/confidence/topk/avg_scores.xlsx
+++ b/results/gru/dilemma/confidence/topk/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="254">
   <si>
     <t>negative</t>
   </si>
@@ -43,928 +43,739 @@
     <t>name</t>
   </si>
   <si>
-    <t>lynch</t>
-  </si>
-  <si>
-    <t>mob</t>
-  </si>
-  <si>
-    <t>dynamite</t>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>hmm</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>illegal</t>
   </si>
   <si>
     <t>drugs</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>slight</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>mit</t>
   </si>
   <si>
-    <t>software</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>slight</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>times</t>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>holes</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>travels</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>edward</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>edward</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>imp</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>screwed</t>
-  </si>
-  <si>
-    <t>censorship</t>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>boring</t>
   </si>
   <si>
     <t>according</t>
   </si>
   <si>
-    <t>intelligence</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>billion</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>regulations</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>wr</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>gradual</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>silicon</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>tu</t>
-  </si>
-  <si>
-    <t>ignore</t>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>consequences</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>addiction</t>
+  </si>
+  <si>
+    <t>existent</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>civil</t>
   </si>
   <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>gradual</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>theories</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>existent</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>anti</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
   </si>
   <si>
     <t>behaviour</t>
   </si>
   <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>propaganda</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>travels</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>bits</t>
-  </si>
-  <si>
-    <t>legitimate</t>
-  </si>
-  <si>
-    <t>gives</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>ago</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>addict</t>
-  </si>
-  <si>
-    <t>conspiracy</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>snap</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>guy</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>facts</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>blown</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>saw</t>
   </si>
   <si>
     <t>con</t>
   </si>
   <si>
-    <t>white</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>industries</t>
+  </si>
+  <si>
+    <t>shows</t>
   </si>
   <si>
     <t>perception</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>algorithms</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>tb</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>film</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>awareness</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>scroll</t>
-  </si>
-  <si>
-    <t>campbell</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>suicide</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>matrix</t>
+    <t>said</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>internet</t>
   </si>
   <si>
-    <t>spreads</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>mon</t>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>only</t>
   </si>
   <si>
     <t>am</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>“</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>besides</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>spend</t>
-  </si>
-  <si>
-    <t>blown</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>felt</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>mirror</t>
-  </si>
-  <si>
-    <t>extremely</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>sm</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>manipulation</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>been</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>addiction</t>
-  </si>
-  <si>
-    <t>said</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>when</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>them</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>being</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>platforms</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>too</t>
-  </si>
-  <si>
-    <t>notification</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>‘</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>into</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>”</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>don</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q277"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1412,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1462,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="K4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1483,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1512,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="K5">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1533,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1541,13 +1352,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.9622641509433962</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1559,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1583,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1612,16 +1423,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="K7">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1641,13 +1452,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1659,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="K8">
-        <v>0.2833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1683,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1691,13 +1502,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1709,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="K9">
-        <v>0.2631578947368421</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1733,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1741,13 +1552,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.6990291262135923</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1759,31 +1570,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="K10">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
       <c r="N10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1791,13 +1602,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.696969696969697</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1809,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K11">
-        <v>0.1891891891891892</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1833,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1841,13 +1652,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.6884057971014492</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1859,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="K12">
-        <v>0.1818181818181818</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1883,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1912,16 +1723,16 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K13">
-        <v>0.1666666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1933,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1941,13 +1752,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.6538461538461539</v>
+        <v>0.6699029126213593</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1959,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="K14">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1983,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1991,13 +1802,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2009,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="K15">
-        <v>0.09836065573770492</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -2033,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2041,13 +1852,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2059,31 +1870,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="K16">
-        <v>0.09090909090909091</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2091,13 +1902,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.5526315789473685</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2109,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.14</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2133,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2141,13 +1952,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.5416666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2159,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="K18">
-        <v>0.08</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2183,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2191,13 +2002,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2209,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="K19">
-        <v>0.07692307692307693</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2233,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2241,13 +2052,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.5238095238095238</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2259,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="K20">
-        <v>0.07142857142857142</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2283,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2291,13 +2102,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.5106382978723404</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2309,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="K21">
-        <v>0.07142857142857142</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2333,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2344,10 +2155,10 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2359,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="K22">
-        <v>0.06153846153846154</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2383,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2412,10 +2223,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="K23">
-        <v>0.06</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L23">
         <v>3</v>
@@ -2433,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2444,10 +2255,10 @@
         <v>0.5</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2459,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="K24">
-        <v>0.05555555555555555</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2483,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2512,16 +2323,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="K25">
-        <v>0.04166666666666666</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2533,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2541,13 +2352,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2559,13 +2370,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c r="K26">
-        <v>0.03333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2583,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2591,13 +2402,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2609,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="K27">
-        <v>0.03125</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2633,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2641,13 +2452,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2659,31 +2470,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K28">
-        <v>0.02631578947368421</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2691,13 +2502,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2709,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="K29">
-        <v>0.02608695652173913</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2733,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2741,13 +2552,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2759,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="K30">
-        <v>0.02439024390243903</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2783,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2791,13 +2602,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2809,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="K31">
-        <v>0.01886792452830189</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2833,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2841,13 +2652,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2859,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="K32">
-        <v>0.01754385964912281</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2883,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2891,13 +2702,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.4827586206896552</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2909,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="K33">
-        <v>0.01351351351351351</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2933,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2941,13 +2752,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.4615384615384616</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2959,19 +2770,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="K34">
-        <v>0.01041666666666667</v>
+        <v>0.03125</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2983,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2991,13 +2802,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3009,31 +2820,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K35">
-        <v>0.008771929824561403</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3041,13 +2852,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.4375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3059,31 +2870,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="K36">
-        <v>0.008720930232558139</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>341</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3091,13 +2902,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3109,31 +2920,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="K37">
-        <v>0.008695652173913044</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3141,13 +2952,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3159,31 +2970,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="K38">
-        <v>0.006329113924050633</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>157</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3191,13 +3002,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3209,31 +3020,31 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39">
+        <v>0.01453488372093023</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
         <v>6</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K39">
-        <v>0.005917159763313609</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>168</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3241,13 +3052,13 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.3888888888888889</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3259,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="K40">
-        <v>0.005050505050505051</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -3283,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>197</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3291,13 +3102,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.375</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3309,31 +3120,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K41">
-        <v>0.0037243947858473</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>535</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3341,13 +3152,13 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.375</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3359,31 +3170,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="K42">
-        <v>0.00364963503649635</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1092</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3391,13 +3202,13 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.3636363636363636</v>
+        <v>0.25</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3409,31 +3220,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K43">
-        <v>0.003344481605351171</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>596</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3441,49 +3252,49 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.3636363636363636</v>
+        <v>0.25</v>
       </c>
       <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K44">
+        <v>0.006042296072507553</v>
+      </c>
+      <c r="L44">
         <v>4</v>
       </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>7</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K44">
-        <v>0.003174603174603175</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
       <c r="M44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>314</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3491,13 +3302,13 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3509,31 +3320,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="K45">
-        <v>0.00302571860816944</v>
+        <v>0.005213764337851929</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N45">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="O45">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>659</v>
+        <v>954</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3541,13 +3352,13 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.3428571428571429</v>
+        <v>0.25</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3559,31 +3370,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="K46">
-        <v>0.00209643605870021</v>
+        <v>0.005</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="O46">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>952</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3591,13 +3402,13 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3609,31 +3420,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="K47">
-        <v>0.00182648401826484</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1093</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3641,7 +3452,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3659,31 +3470,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="K48">
-        <v>0.001626016260162602</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="O48">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>614</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3691,49 +3502,49 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>3</v>
       </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>6</v>
-      </c>
       <c r="J49" s="1" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="K49">
-        <v>0.001406469760900141</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O49">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>710</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3741,13 +3552,13 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3759,31 +3570,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="K50">
-        <v>0.001390820584144645</v>
+        <v>0.003174603174603175</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>718</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3791,13 +3602,13 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.3333333333333333</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3809,31 +3620,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="K51">
-        <v>0.001287001287001287</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="O51">
-        <v>0.2</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>776</v>
+        <v>709</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3841,13 +3652,13 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3859,31 +3670,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="K52">
-        <v>0.001145475372279496</v>
+        <v>0.002743484224965706</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
         <v>6</v>
       </c>
       <c r="N52">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="O52">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>872</v>
+        <v>727</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3891,13 +3702,13 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3909,31 +3720,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K53">
-        <v>0.0003627130939426913</v>
+        <v>0.00273224043715847</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2756</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3941,49 +3752,49 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.3333333333333333</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>79</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K54">
+        <v>0.001446654611211573</v>
+      </c>
+      <c r="L54">
         <v>4</v>
       </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>8</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K54">
-        <v>0.000256871307474955</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
       <c r="M54">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>3892</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3991,13 +3802,13 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.3333333333333333</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4009,7 +3820,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K55">
+        <v>0.00115473441108545</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>0.67</v>
+      </c>
+      <c r="O55">
+        <v>0.33</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1730</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4017,13 +3852,13 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.3333333333333333</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4035,7 +3870,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K56">
+        <v>0.001140250855188141</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>0.5</v>
+      </c>
+      <c r="O56">
+        <v>0.5</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>876</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4043,13 +3902,13 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.3333333333333333</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4061,7 +3920,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K57">
+        <v>0.0008748906386701663</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1142</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4069,13 +3952,13 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.3214285714285715</v>
+        <v>0.2</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4087,7 +3970,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K58">
+        <v>0.0002560163850486431</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>23</v>
+      </c>
+      <c r="N58">
+        <v>0.96</v>
+      </c>
+      <c r="O58">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3905</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4095,13 +4002,13 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.3125</v>
+        <v>0.2</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4113,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4121,13 +4028,13 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.303030303030303</v>
+        <v>0.2</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4139,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4147,13 +4054,13 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4165,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4173,13 +4080,13 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4191,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4199,13 +4106,13 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4217,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4225,13 +4132,13 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.2941176470588235</v>
+        <v>0.2</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4251,13 +4158,13 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.2941176470588235</v>
+        <v>0.2</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4269,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4277,13 +4184,13 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.2916666666666667</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4295,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4303,13 +4210,13 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.2857142857142857</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4321,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4329,13 +4236,13 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2673267326732673</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4347,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4355,7 +4262,7 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4373,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4381,13 +4288,13 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.25</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4399,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4407,13 +4314,13 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.25</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4425,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4433,13 +4340,13 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.25</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4451,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4459,13 +4366,13 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4477,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4485,7 +4392,7 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4503,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4511,25 +4418,25 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4537,13 +4444,13 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4555,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4563,7 +4470,7 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4581,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4589,7 +4496,7 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4607,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4615,7 +4522,7 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4633,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4641,7 +4548,7 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4659,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4667,13 +4574,13 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4685,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4693,13 +4600,13 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2380952380952381</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4711,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4719,13 +4626,13 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>0.2307692307692308</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4737,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4745,13 +4652,13 @@
         <v>90</v>
       </c>
       <c r="B84">
-        <v>0.2222222222222222</v>
+        <v>0.15</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4763,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4771,13 +4678,13 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2127659574468085</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4789,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4797,7 +4704,7 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4815,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4823,13 +4730,13 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4841,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4849,13 +4756,13 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4867,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4875,13 +4782,13 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4893,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4901,7 +4808,7 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4919,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4927,13 +4834,13 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4945,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4953,7 +4860,7 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -4971,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4979,13 +4886,13 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4997,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5005,13 +4912,13 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1875</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5023,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5031,13 +4938,13 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1764705882352941</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5049,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5057,13 +4964,13 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>0.1764705882352941</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5075,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5083,13 +4990,13 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>0.1739130434782609</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5101,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5109,13 +5016,13 @@
         <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1690140845070423</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5127,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5135,13 +5042,13 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5153,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5161,7 +5068,7 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5179,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5187,13 +5094,13 @@
         <v>107</v>
       </c>
       <c r="B101">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5205,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5213,13 +5120,13 @@
         <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1666666666666667</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5231,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5239,13 +5146,13 @@
         <v>109</v>
       </c>
       <c r="B103">
-        <v>0.1666666666666667</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5257,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5265,7 +5172,7 @@
         <v>110</v>
       </c>
       <c r="B104">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5283,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5291,7 +5198,7 @@
         <v>111</v>
       </c>
       <c r="B105">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5309,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5317,13 +5224,13 @@
         <v>112</v>
       </c>
       <c r="B106">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5335,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5343,7 +5250,7 @@
         <v>113</v>
       </c>
       <c r="B107">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5361,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5369,13 +5276,13 @@
         <v>114</v>
       </c>
       <c r="B108">
-        <v>0.1666666666666667</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5387,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5395,13 +5302,13 @@
         <v>115</v>
       </c>
       <c r="B109">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5421,13 +5328,13 @@
         <v>116</v>
       </c>
       <c r="B110">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5447,13 +5354,13 @@
         <v>117</v>
       </c>
       <c r="B111">
-        <v>0.1515151515151515</v>
+        <v>0.08</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5465,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5473,13 +5380,13 @@
         <v>118</v>
       </c>
       <c r="B112">
-        <v>0.15</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5491,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5499,13 +5406,13 @@
         <v>119</v>
       </c>
       <c r="B113">
-        <v>0.1463414634146341</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5517,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5525,13 +5432,13 @@
         <v>120</v>
       </c>
       <c r="B114">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5543,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5551,13 +5458,13 @@
         <v>121</v>
       </c>
       <c r="B115">
-        <v>0.1428571428571428</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5569,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5577,7 +5484,7 @@
         <v>122</v>
       </c>
       <c r="B116">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5595,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5603,7 +5510,7 @@
         <v>123</v>
       </c>
       <c r="B117">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5621,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5629,7 +5536,7 @@
         <v>124</v>
       </c>
       <c r="B118">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5647,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5655,13 +5562,13 @@
         <v>125</v>
       </c>
       <c r="B119">
-        <v>0.1428571428571428</v>
+        <v>0.0625</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5673,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5681,7 +5588,7 @@
         <v>126</v>
       </c>
       <c r="B120">
-        <v>0.1428571428571428</v>
+        <v>0.0625</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5699,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5707,13 +5614,13 @@
         <v>127</v>
       </c>
       <c r="B121">
-        <v>0.1428571428571428</v>
+        <v>0.0625</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5725,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5733,13 +5640,13 @@
         <v>128</v>
       </c>
       <c r="B122">
-        <v>0.1363636363636364</v>
+        <v>0.06</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5751,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5759,13 +5666,13 @@
         <v>129</v>
       </c>
       <c r="B123">
-        <v>0.1363636363636364</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5777,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5785,13 +5692,13 @@
         <v>130</v>
       </c>
       <c r="B124">
-        <v>0.1333333333333333</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5803,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5811,13 +5718,13 @@
         <v>131</v>
       </c>
       <c r="B125">
-        <v>0.125</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5829,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5837,13 +5744,13 @@
         <v>132</v>
       </c>
       <c r="B126">
-        <v>0.1176470588235294</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5855,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5863,7 +5770,7 @@
         <v>133</v>
       </c>
       <c r="B127">
-        <v>0.1111111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5881,15 +5788,15 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B128">
-        <v>0.1111111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5907,15 +5814,15 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129">
-        <v>0.1111111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5933,21 +5840,21 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130">
-        <v>0.1111111111111111</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -5959,21 +5866,21 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131">
-        <v>0.1111111111111111</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5985,15 +5892,15 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B132">
-        <v>0.103448275862069</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -6011,21 +5918,21 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B133">
-        <v>0.1</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6037,15 +5944,15 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B134">
-        <v>0.1</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -6063,21 +5970,21 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B135">
-        <v>0.1</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6089,15 +5996,15 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B136">
-        <v>0.1</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -6115,21 +6022,21 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B137">
-        <v>0.09333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6141,41 +6048,41 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B138">
-        <v>0.09090909090909091</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139">
-        <v>0.09090909090909091</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -6193,15 +6100,15 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B140">
-        <v>0.09090909090909091</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -6219,15 +6126,15 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B141">
-        <v>0.09090909090909091</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -6245,21 +6152,21 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B142">
-        <v>0.09090909090909091</v>
+        <v>0.0334448160535117</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6271,15 +6178,15 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>10</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B143">
-        <v>0.09090909090909091</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -6297,21 +6204,21 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B144">
-        <v>0.08888888888888889</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6323,21 +6230,21 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>41</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B145">
-        <v>0.08695652173913043</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6349,15 +6256,15 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B146">
-        <v>0.08333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -6375,21 +6282,21 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B147">
-        <v>0.08333333333333333</v>
+        <v>0.02676864244741874</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6401,21 +6308,21 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>11</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B148">
-        <v>0.08333333333333333</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6427,15 +6334,15 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B149">
-        <v>0.08333333333333333</v>
+        <v>0.025</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -6453,15 +6360,15 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B150">
-        <v>0.08333333333333333</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -6479,15 +6386,15 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B151">
-        <v>0.08333333333333333</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -6505,21 +6412,21 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B152">
-        <v>0.08333333333333333</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6531,21 +6438,21 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B153">
-        <v>0.07692307692307693</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C153">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6557,15 +6464,15 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>276</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B154">
-        <v>0.07692307692307693</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -6583,21 +6490,21 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B155">
-        <v>0.07692307692307693</v>
+        <v>0.02181818181818182</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -6609,21 +6516,21 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>12</v>
+        <v>538</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B156">
-        <v>0.07142857142857142</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -6635,21 +6542,21 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B157">
-        <v>0.07142857142857142</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -6661,21 +6568,21 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B158">
-        <v>0.07142857142857142</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6687,21 +6594,21 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B159">
-        <v>0.06818181818181818</v>
+        <v>0.016</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -6713,21 +6620,21 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>41</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B160">
-        <v>0.06666666666666667</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -6739,21 +6646,21 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>14</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B161">
-        <v>0.06666666666666667</v>
+        <v>0.0155902004454343</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -6765,21 +6672,21 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>14</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B162">
-        <v>0.06666666666666667</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -6791,15 +6698,15 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B163">
-        <v>0.06666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -6817,15 +6724,15 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B164">
-        <v>0.0625</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -6843,21 +6750,21 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B165">
-        <v>0.0625</v>
+        <v>0.01220575414123801</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -6869,21 +6776,21 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>15</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B166">
-        <v>0.06</v>
+        <v>0.01151315789473684</v>
       </c>
       <c r="C166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -6895,21 +6802,21 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>94</v>
+        <v>601</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B167">
-        <v>0.06</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -6921,47 +6828,47 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B168">
-        <v>0.05714285714285714</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>33</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B169">
-        <v>0.05617977528089887</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -6973,15 +6880,15 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B170">
-        <v>0.05555555555555555</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -6999,21 +6906,21 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B171">
-        <v>0.05555555555555555</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -7025,15 +6932,15 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>17</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B172">
-        <v>0.05263157894736842</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -7051,73 +6958,73 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B173">
-        <v>0.05263157894736842</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B174">
-        <v>0.05109489051094891</v>
+        <v>0.008261494252873564</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>130</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B175">
-        <v>0.05084745762711865</v>
+        <v>0.008</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -7129,21 +7036,21 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B176">
-        <v>0.05063291139240506</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7155,21 +7062,21 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B177">
-        <v>0.0497131931166348</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C177">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7181,15 +7088,15 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>994</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B178">
-        <v>0.04761904761904762</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -7207,21 +7114,21 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B179">
-        <v>0.04545454545454546</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -7233,15 +7140,15 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>21</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B180">
-        <v>0.04545454545454546</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -7259,41 +7166,41 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B181">
-        <v>0.04477611940298507</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>64</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B182">
-        <v>0.04347826086956522</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -7311,47 +7218,47 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B183">
-        <v>0.04347826086956522</v>
+        <v>0.005602240896358543</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>22</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B184">
-        <v>0.0425531914893617</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -7363,47 +7270,47 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>45</v>
+        <v>537</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B185">
-        <v>0.04205607476635514</v>
+        <v>0.005471956224350205</v>
       </c>
       <c r="C185">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>205</v>
+        <v>727</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B186">
-        <v>0.04166666666666666</v>
+        <v>0.005230125523012552</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -7415,15 +7322,15 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>23</v>
+        <v>951</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B187">
-        <v>0.04166666666666666</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -7441,15 +7348,15 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>23</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B188">
-        <v>0.04166666666666666</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -7467,15 +7374,15 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>23</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B189">
-        <v>0.04166666666666666</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -7493,21 +7400,21 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>23</v>
+        <v>225</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B190">
-        <v>0.04</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -7519,15 +7426,15 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>120</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B191">
-        <v>0.04</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -7545,21 +7452,21 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>24</v>
+        <v>287</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B192">
-        <v>0.03846153846153846</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -7571,21 +7478,21 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>25</v>
+        <v>614</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B193">
-        <v>0.03703703703703703</v>
+        <v>0.003151260504201681</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -7597,93 +7504,93 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>52</v>
+        <v>949</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B194">
-        <v>0.03703703703703703</v>
+        <v>0.003134796238244514</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>52</v>
+        <v>954</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B195">
-        <v>0.03703703703703703</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>52</v>
+        <v>658</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B196">
-        <v>0.03571428571428571</v>
+        <v>0.002941176470588235</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>27</v>
+        <v>339</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B197">
-        <v>0.03571428571428571</v>
+        <v>0.002710027100271003</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -7701,21 +7608,21 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>27</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B198">
-        <v>0.03472222222222222</v>
+        <v>0.002597402597402597</v>
       </c>
       <c r="C198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -7727,21 +7634,21 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>139</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B199">
-        <v>0.03448275862068965</v>
+        <v>0.002560819462227913</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -7753,2035 +7660,111 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>28</v>
+        <v>779</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B200">
-        <v>0.03333333333333333</v>
+        <v>0.002306805074971165</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>29</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B201">
-        <v>0.03333333333333333</v>
+        <v>0.001408450704225352</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>29</v>
+        <v>709</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B202">
-        <v>0.03333333333333333</v>
+        <v>0.001140250855188141</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>29</v>
+        <v>876</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B203">
-        <v>0.03225806451612903</v>
+        <v>0.0009115770282588879</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>5</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B204">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204">
-        <v>1</v>
-      </c>
-      <c r="E204">
-        <v>1</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
-      <c r="G204" t="b">
-        <v>0</v>
-      </c>
-      <c r="H204">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B205">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205" t="b">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B206">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C206">
-        <v>4</v>
-      </c>
-      <c r="D206">
-        <v>4</v>
-      </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206" t="b">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B207">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="C207">
-        <v>2</v>
-      </c>
-      <c r="D207">
-        <v>2</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207" t="b">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B208">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
-      <c r="E208">
-        <v>1</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208" t="b">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B209">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="C209">
-        <v>3</v>
-      </c>
-      <c r="D209">
-        <v>3</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="G209" t="b">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B210">
-        <v>0.02816901408450704</v>
-      </c>
-      <c r="C210">
-        <v>2</v>
-      </c>
-      <c r="D210">
-        <v>2</v>
-      </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210" t="b">
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B211">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="G211" t="b">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B212">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="C212">
-        <v>2</v>
-      </c>
-      <c r="D212">
-        <v>2</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
-      <c r="H212">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B213">
-        <v>0.0267260579064588</v>
-      </c>
-      <c r="C213">
-        <v>12</v>
-      </c>
-      <c r="D213">
-        <v>12</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
-      <c r="G213" t="b">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B214">
-        <v>0.02659574468085106</v>
-      </c>
-      <c r="C214">
-        <v>5</v>
-      </c>
-      <c r="D214">
-        <v>5</v>
-      </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
-      <c r="H214">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B215">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C215">
-        <v>3</v>
-      </c>
-      <c r="D215">
-        <v>3</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B216">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>2</v>
-      </c>
-      <c r="E216">
-        <v>0.5</v>
-      </c>
-      <c r="F216">
-        <v>0.5</v>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B217">
-        <v>0.025</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
-      </c>
-      <c r="E217">
-        <v>1</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B218">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218" t="b">
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B219">
-        <v>0.02409638554216868</v>
-      </c>
-      <c r="C219">
-        <v>2</v>
-      </c>
-      <c r="D219">
-        <v>2</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-      <c r="G219" t="b">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B220">
-        <v>0.024</v>
-      </c>
-      <c r="C220">
-        <v>3</v>
-      </c>
-      <c r="D220">
-        <v>3</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
-      <c r="G220" t="b">
-        <v>0</v>
-      </c>
-      <c r="H220">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B221">
-        <v>0.02372262773722628</v>
-      </c>
-      <c r="C221">
-        <v>13</v>
-      </c>
-      <c r="D221">
-        <v>15</v>
-      </c>
-      <c r="E221">
-        <v>0.87</v>
-      </c>
-      <c r="F221">
-        <v>0.13</v>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B222">
-        <v>0.02179598953792502</v>
-      </c>
-      <c r="C222">
-        <v>25</v>
-      </c>
-      <c r="D222">
-        <v>25</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222" t="b">
-        <v>0</v>
-      </c>
-      <c r="H222">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B223">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
-      </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
-      <c r="G223" t="b">
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B224">
-        <v>0.02127659574468085</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>1</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-      <c r="G224" t="b">
-        <v>0</v>
-      </c>
-      <c r="H224">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B225">
-        <v>0.02083333333333333</v>
-      </c>
-      <c r="C225">
-        <v>6</v>
-      </c>
-      <c r="D225">
-        <v>6</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225" t="b">
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B226">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="C226">
-        <v>9</v>
-      </c>
-      <c r="D226">
-        <v>9</v>
-      </c>
-      <c r="E226">
-        <v>1</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="G226" t="b">
-        <v>0</v>
-      </c>
-      <c r="H226">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B227">
-        <v>0.02</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227" t="b">
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B228">
-        <v>0.02</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-      <c r="G228" t="b">
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B229">
-        <v>0.01923076923076923</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229" t="b">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B230">
-        <v>0.01912568306010929</v>
-      </c>
-      <c r="C230">
-        <v>14</v>
-      </c>
-      <c r="D230">
-        <v>15</v>
-      </c>
-      <c r="E230">
-        <v>0.93</v>
-      </c>
-      <c r="F230">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B231">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" t="b">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B232">
-        <v>0.0165016501650165</v>
-      </c>
-      <c r="C232">
-        <v>10</v>
-      </c>
-      <c r="D232">
-        <v>12</v>
-      </c>
-      <c r="E232">
-        <v>0.83</v>
-      </c>
-      <c r="F232">
-        <v>0.17</v>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B233">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="G233" t="b">
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B234">
-        <v>0.01569037656903766</v>
-      </c>
-      <c r="C234">
-        <v>15</v>
-      </c>
-      <c r="D234">
-        <v>15</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234" t="b">
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B235">
-        <v>0.01526717557251908</v>
-      </c>
-      <c r="C235">
-        <v>2</v>
-      </c>
-      <c r="D235">
-        <v>2</v>
-      </c>
-      <c r="E235">
-        <v>1</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" t="b">
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B236">
-        <v>0.01298701298701299</v>
-      </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="E236">
-        <v>1</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236" t="b">
-        <v>0</v>
-      </c>
-      <c r="H236">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B237">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="C237">
-        <v>2</v>
-      </c>
-      <c r="D237">
-        <v>2</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237" t="b">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B238">
-        <v>0.0125</v>
-      </c>
-      <c r="C238">
-        <v>3</v>
-      </c>
-      <c r="D238">
-        <v>3</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238" t="b">
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B239">
-        <v>0.0124223602484472</v>
-      </c>
-      <c r="C239">
-        <v>2</v>
-      </c>
-      <c r="D239">
-        <v>2</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239" t="b">
-        <v>0</v>
-      </c>
-      <c r="H239">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B240">
-        <v>0.01204819277108434</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240" t="b">
-        <v>0</v>
-      </c>
-      <c r="H240">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B241">
-        <v>0.01112307140294223</v>
-      </c>
-      <c r="C241">
-        <v>31</v>
-      </c>
-      <c r="D241">
-        <v>32</v>
-      </c>
-      <c r="E241">
-        <v>0.97</v>
-      </c>
-      <c r="F241">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B242">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="C242">
-        <v>6</v>
-      </c>
-      <c r="D242">
-        <v>6</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-      <c r="G242" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B243">
-        <v>0.009900990099009901</v>
-      </c>
-      <c r="C243">
-        <v>2</v>
-      </c>
-      <c r="D243">
-        <v>2</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243" t="b">
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B244">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244" t="b">
-        <v>0</v>
-      </c>
-      <c r="H244">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245">
-        <v>0.008912655971479501</v>
-      </c>
-      <c r="C245">
-        <v>35</v>
-      </c>
-      <c r="D245">
-        <v>36</v>
-      </c>
-      <c r="E245">
-        <v>0.97</v>
-      </c>
-      <c r="F245">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>3892</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.008902077151335312</v>
-      </c>
-      <c r="C246">
-        <v>3</v>
-      </c>
-      <c r="D246">
-        <v>3</v>
-      </c>
-      <c r="E246">
-        <v>1</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0.008888888888888889</v>
-      </c>
-      <c r="C247">
-        <v>4</v>
-      </c>
-      <c r="D247">
-        <v>4</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
-      <c r="H247">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248">
-        <v>0.008849557522123894</v>
-      </c>
-      <c r="C248">
-        <v>2</v>
-      </c>
-      <c r="D248">
-        <v>2</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-      <c r="G248" t="b">
-        <v>0</v>
-      </c>
-      <c r="H248">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0.008771929824561403</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249">
-        <v>0.5</v>
-      </c>
-      <c r="F249">
-        <v>0.5</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="C250">
-        <v>8</v>
-      </c>
-      <c r="D250">
-        <v>8</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>0</v>
-      </c>
-      <c r="G250" t="b">
-        <v>0</v>
-      </c>
-      <c r="H250">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B251">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="C251">
-        <v>8</v>
-      </c>
-      <c r="D251">
-        <v>10</v>
-      </c>
-      <c r="E251">
-        <v>0.8</v>
-      </c>
-      <c r="F251">
-        <v>0.2</v>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B252">
-        <v>0.008130081300813009</v>
-      </c>
-      <c r="C252">
-        <v>3</v>
-      </c>
-      <c r="D252">
-        <v>3</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-      <c r="G252" t="b">
-        <v>0</v>
-      </c>
-      <c r="H252">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B253">
-        <v>0.007751937984496124</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="E253">
-        <v>1</v>
-      </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-      <c r="G253" t="b">
-        <v>0</v>
-      </c>
-      <c r="H253">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254">
-        <v>0.007692307692307693</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-      <c r="G254" t="b">
-        <v>0</v>
-      </c>
-      <c r="H254">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255">
-        <v>0.007575757575757576</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>0</v>
-      </c>
-      <c r="G255" t="b">
-        <v>0</v>
-      </c>
-      <c r="H255">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B256">
-        <v>0.007518796992481203</v>
-      </c>
-      <c r="C256">
-        <v>2</v>
-      </c>
-      <c r="D256">
-        <v>2</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-      <c r="G256" t="b">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B257">
-        <v>0.006711409395973154</v>
-      </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
-      </c>
-      <c r="E257">
-        <v>1</v>
-      </c>
-      <c r="F257">
-        <v>0</v>
-      </c>
-      <c r="G257" t="b">
-        <v>0</v>
-      </c>
-      <c r="H257">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-      <c r="F258">
-        <v>0</v>
-      </c>
-      <c r="G258" t="b">
-        <v>0</v>
-      </c>
-      <c r="H258">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259">
-        <v>0.006329113924050633</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>2</v>
-      </c>
-      <c r="E259">
-        <v>0.5</v>
-      </c>
-      <c r="F259">
-        <v>0.5</v>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B260">
-        <v>0.005952380952380952</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-      <c r="D260">
-        <v>1</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-      <c r="F260">
-        <v>0</v>
-      </c>
-      <c r="G260" t="b">
-        <v>0</v>
-      </c>
-      <c r="H260">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B261">
-        <v>0.005701254275940707</v>
-      </c>
-      <c r="C261">
-        <v>5</v>
-      </c>
-      <c r="D261">
-        <v>6</v>
-      </c>
-      <c r="E261">
-        <v>0.83</v>
-      </c>
-      <c r="F261">
-        <v>0.17</v>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262">
-        <v>0.00545950864422202</v>
-      </c>
-      <c r="C262">
-        <v>6</v>
-      </c>
-      <c r="D262">
-        <v>8</v>
-      </c>
-      <c r="E262">
-        <v>0.75</v>
-      </c>
-      <c r="F262">
-        <v>0.25</v>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B263">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="C263">
-        <v>4</v>
-      </c>
-      <c r="D263">
-        <v>5</v>
-      </c>
-      <c r="E263">
-        <v>0.8</v>
-      </c>
-      <c r="F263">
-        <v>0.2</v>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B264">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-      <c r="G264" t="b">
-        <v>0</v>
-      </c>
-      <c r="H264">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B265">
-        <v>0.004694835680751174</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="G265" t="b">
-        <v>0</v>
-      </c>
-      <c r="H265">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B266">
-        <v>0.004531722054380665</v>
-      </c>
-      <c r="C266">
-        <v>3</v>
-      </c>
-      <c r="D266">
-        <v>5</v>
-      </c>
-      <c r="E266">
-        <v>0.6</v>
-      </c>
-      <c r="F266">
-        <v>0.4</v>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B267">
-        <v>0.003597122302158274</v>
-      </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
-      </c>
-      <c r="E267">
-        <v>1</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
-      </c>
-      <c r="G267" t="b">
-        <v>0</v>
-      </c>
-      <c r="H267">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B268">
-        <v>0.00353356890459364</v>
-      </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-      <c r="D268">
-        <v>1</v>
-      </c>
-      <c r="E268">
-        <v>1</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="G268" t="b">
-        <v>0</v>
-      </c>
-      <c r="H268">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B269">
-        <v>0.003389830508474576</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-      <c r="E269">
-        <v>1</v>
-      </c>
-      <c r="F269">
-        <v>0</v>
-      </c>
-      <c r="G269" t="b">
-        <v>0</v>
-      </c>
-      <c r="H269">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B270">
-        <v>0.002923976608187134</v>
-      </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-      <c r="D270">
-        <v>4</v>
-      </c>
-      <c r="E270">
-        <v>0.25</v>
-      </c>
-      <c r="F270">
-        <v>0.75</v>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B271">
-        <v>0.002695417789757413</v>
-      </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-      <c r="D271">
-        <v>1</v>
-      </c>
-      <c r="E271">
-        <v>1</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-      <c r="G271" t="b">
-        <v>0</v>
-      </c>
-      <c r="H271">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272">
-        <v>0.002597402597402597</v>
-      </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
-        <v>1</v>
-      </c>
-      <c r="F272">
-        <v>0</v>
-      </c>
-      <c r="G272" t="b">
-        <v>0</v>
-      </c>
-      <c r="H272">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0.001828153564899452</v>
-      </c>
-      <c r="C273">
-        <v>2</v>
-      </c>
-      <c r="D273">
-        <v>6</v>
-      </c>
-      <c r="E273">
-        <v>0.33</v>
-      </c>
-      <c r="F273">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0.001626016260162602</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>2</v>
-      </c>
-      <c r="E274">
-        <v>0.5</v>
-      </c>
-      <c r="F274">
-        <v>0.5</v>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275">
-        <v>0.001406469760900141</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>2</v>
-      </c>
-      <c r="E275">
-        <v>0.5</v>
-      </c>
-      <c r="F275">
-        <v>0.5</v>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B276">
-        <v>0.0008748906386701663</v>
-      </c>
-      <c r="C276">
-        <v>1</v>
-      </c>
-      <c r="D276">
-        <v>1</v>
-      </c>
-      <c r="E276">
-        <v>1</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276" t="b">
-        <v>0</v>
-      </c>
-      <c r="H276">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B277">
-        <v>0.000576036866359447</v>
-      </c>
-      <c r="C277">
-        <v>1</v>
-      </c>
-      <c r="D277">
-        <v>1</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-      <c r="G277" t="b">
-        <v>0</v>
-      </c>
-      <c r="H277">
-        <v>1735</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
